--- a/Test-DSCBCNV.xlsx
+++ b/Test-DSCBCNV.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LG\PycharmProjects\PCCC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFC2FAB6-1A99-4714-97CE-22EC80F1FFCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1921039B-F6E0-4F4F-8068-E8BB0B7E9C09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A:$F</definedName>
+    <definedName name="Status">Sheet1!$J$2:$J$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="82">
   <si>
     <t>STT</t>
   </si>
@@ -273,6 +275,15 @@
   </si>
   <si>
     <t>T4419</t>
+  </si>
+  <si>
+    <t>Có mặt</t>
+  </si>
+  <si>
+    <t>Vắng mặt</t>
+  </si>
+  <si>
+    <t>Tình trạng</t>
   </si>
 </sst>
 </file>
@@ -306,7 +317,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -366,11 +377,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -386,6 +432,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -408,16 +466,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>977781</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>977781</xdr:rowOff>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1092081</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>12581</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -440,28 +498,28 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4800600" y="222250"/>
-          <a:ext cx="952381" cy="952381"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
+          <a:off x="6013450" y="247650"/>
+          <a:ext cx="952381" cy="952381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>977781</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>977781</xdr:rowOff>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1092081</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>12581</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -484,28 +542,28 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4800600" y="1212850"/>
-          <a:ext cx="952381" cy="952381"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
+          <a:off x="6013450" y="1238250"/>
+          <a:ext cx="952381" cy="952381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>977781</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>977781</xdr:rowOff>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1092081</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>12581</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -528,28 +586,28 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4800600" y="2203450"/>
-          <a:ext cx="952381" cy="952381"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
+          <a:off x="6013450" y="2228850"/>
+          <a:ext cx="952381" cy="952381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>977781</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>977781</xdr:rowOff>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1092081</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>12581</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -572,28 +630,28 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4800600" y="3194050"/>
-          <a:ext cx="952381" cy="952381"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
+          <a:off x="6013450" y="3219450"/>
+          <a:ext cx="952381" cy="952381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>977781</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>977781</xdr:rowOff>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1092081</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>12581</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -616,28 +674,28 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4800600" y="4184650"/>
-          <a:ext cx="952381" cy="952381"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
+          <a:off x="6013450" y="4210050"/>
+          <a:ext cx="952381" cy="952381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>977781</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>977781</xdr:rowOff>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1092081</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>12581</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -660,28 +718,28 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4800600" y="5175250"/>
-          <a:ext cx="952381" cy="952381"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
+          <a:off x="6013450" y="5200650"/>
+          <a:ext cx="952381" cy="952381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>977781</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>977781</xdr:rowOff>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1092081</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>12581</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -704,28 +762,28 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4800600" y="6165850"/>
-          <a:ext cx="952381" cy="952381"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
+          <a:off x="6013450" y="6191250"/>
+          <a:ext cx="952381" cy="952381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>977781</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>977781</xdr:rowOff>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1092081</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>12581</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -748,28 +806,28 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4800600" y="7156450"/>
-          <a:ext cx="952381" cy="952381"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
+          <a:off x="6013450" y="7181850"/>
+          <a:ext cx="952381" cy="952381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>977781</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>977781</xdr:rowOff>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1092081</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>12581</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -792,28 +850,28 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4800600" y="8147050"/>
-          <a:ext cx="952381" cy="952381"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
+          <a:off x="6013450" y="8172450"/>
+          <a:ext cx="952381" cy="952381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>977781</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>977781</xdr:rowOff>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1092081</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>12581</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -836,28 +894,28 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4800600" y="9137650"/>
-          <a:ext cx="952381" cy="952381"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
+          <a:off x="6013450" y="9163050"/>
+          <a:ext cx="952381" cy="952381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>977781</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>977781</xdr:rowOff>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1092081</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>12581</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -880,28 +938,28 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4800600" y="10128250"/>
-          <a:ext cx="952381" cy="952381"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
+          <a:off x="6013450" y="10153650"/>
+          <a:ext cx="952381" cy="952381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>977781</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>977781</xdr:rowOff>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1092081</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>12581</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -924,28 +982,28 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4800600" y="11118850"/>
-          <a:ext cx="952381" cy="952381"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
+          <a:off x="6013450" y="11144250"/>
+          <a:ext cx="952381" cy="952381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>977781</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>977781</xdr:rowOff>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1092081</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>12581</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -968,28 +1026,28 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4800600" y="12109450"/>
-          <a:ext cx="952381" cy="952381"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
+          <a:off x="6013450" y="12134850"/>
+          <a:ext cx="952381" cy="952381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>977781</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>977781</xdr:rowOff>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1092081</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>12581</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1012,28 +1070,28 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4800600" y="13100050"/>
-          <a:ext cx="952381" cy="952381"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
+          <a:off x="6013450" y="13125450"/>
+          <a:ext cx="952381" cy="952381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>977781</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>977781</xdr:rowOff>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1092081</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>12581</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1056,28 +1114,28 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4800600" y="14090650"/>
-          <a:ext cx="952381" cy="952381"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
+          <a:off x="6013450" y="14116050"/>
+          <a:ext cx="952381" cy="952381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>977781</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>977781</xdr:rowOff>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1092081</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>12581</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1100,28 +1158,28 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4800600" y="15081250"/>
-          <a:ext cx="952381" cy="952381"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
+          <a:off x="6013450" y="15106650"/>
+          <a:ext cx="952381" cy="952381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>977781</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>977781</xdr:rowOff>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1092081</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>12581</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1144,28 +1202,28 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4800600" y="16071850"/>
-          <a:ext cx="952381" cy="952381"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
+          <a:off x="6013450" y="16097250"/>
+          <a:ext cx="952381" cy="952381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>977781</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>977781</xdr:rowOff>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1092081</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>12581</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1188,28 +1246,28 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4800600" y="17062450"/>
-          <a:ext cx="952381" cy="952381"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
+          <a:off x="6013450" y="17087850"/>
+          <a:ext cx="952381" cy="952381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>977781</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>977781</xdr:rowOff>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1092081</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>12581</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1232,28 +1290,28 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4800600" y="18053050"/>
-          <a:ext cx="952381" cy="952381"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
+          <a:off x="6013450" y="18078450"/>
+          <a:ext cx="952381" cy="952381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>977781</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>977781</xdr:rowOff>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1092081</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>12581</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1276,28 +1334,28 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4800600" y="19043650"/>
-          <a:ext cx="952381" cy="952381"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
+          <a:off x="6013450" y="19069050"/>
+          <a:ext cx="952381" cy="952381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>977781</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>977781</xdr:rowOff>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1092081</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>12581</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1320,28 +1378,28 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4800600" y="20034250"/>
-          <a:ext cx="952381" cy="952381"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
+          <a:off x="6013450" y="20059650"/>
+          <a:ext cx="952381" cy="952381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>977781</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>977781</xdr:rowOff>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1092081</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>12581</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1364,28 +1422,28 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4800600" y="21024850"/>
-          <a:ext cx="952381" cy="952381"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
+          <a:off x="6013450" y="21050250"/>
+          <a:ext cx="952381" cy="952381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>977781</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>977781</xdr:rowOff>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1092081</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>12581</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1408,28 +1466,28 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4800600" y="22015450"/>
-          <a:ext cx="952381" cy="952381"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
+          <a:off x="6013450" y="22040850"/>
+          <a:ext cx="952381" cy="952381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>977781</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>977781</xdr:rowOff>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1092081</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>12581</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1452,28 +1510,28 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4800600" y="23006050"/>
-          <a:ext cx="952381" cy="952381"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
+          <a:off x="6013450" y="23031450"/>
+          <a:ext cx="952381" cy="952381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>977781</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>977781</xdr:rowOff>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1092081</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>12581</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1496,28 +1554,28 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4800600" y="23996650"/>
-          <a:ext cx="952381" cy="952381"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
+          <a:off x="6013450" y="24022050"/>
+          <a:ext cx="952381" cy="952381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>977781</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>977781</xdr:rowOff>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1092081</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>12581</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1540,28 +1598,28 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4800600" y="24987250"/>
-          <a:ext cx="952381" cy="952381"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
+          <a:off x="6013450" y="25012650"/>
+          <a:ext cx="952381" cy="952381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>977781</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>977781</xdr:rowOff>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1092081</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>12581</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1584,28 +1642,28 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4800600" y="25977850"/>
-          <a:ext cx="952381" cy="952381"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
+          <a:off x="6013450" y="26003250"/>
+          <a:ext cx="952381" cy="952381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>977781</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>977781</xdr:rowOff>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1092081</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>12581</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1628,28 +1686,28 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4800600" y="26968450"/>
-          <a:ext cx="952381" cy="952381"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
+          <a:off x="6013450" y="26993850"/>
+          <a:ext cx="952381" cy="952381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>977781</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>977781</xdr:rowOff>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1092081</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>12581</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1672,28 +1730,28 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4800600" y="27959050"/>
-          <a:ext cx="952381" cy="952381"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
+          <a:off x="6013450" y="27984450"/>
+          <a:ext cx="952381" cy="952381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>977781</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>977781</xdr:rowOff>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1092081</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>12581</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1716,28 +1774,28 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4800600" y="28949650"/>
-          <a:ext cx="952381" cy="952381"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
+          <a:off x="6013450" y="28975050"/>
+          <a:ext cx="952381" cy="952381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>977781</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>977781</xdr:rowOff>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1092081</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>12581</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1760,28 +1818,28 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4800600" y="29940250"/>
-          <a:ext cx="952381" cy="952381"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
+          <a:off x="6013450" y="29965650"/>
+          <a:ext cx="952381" cy="952381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>977781</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>977781</xdr:rowOff>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1092081</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>12581</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1804,28 +1862,28 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4800600" y="30930850"/>
-          <a:ext cx="952381" cy="952381"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
+          <a:off x="6013450" y="30956250"/>
+          <a:ext cx="952381" cy="952381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>977781</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>977781</xdr:rowOff>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1092081</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>12581</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1848,28 +1906,28 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4800600" y="31921450"/>
-          <a:ext cx="952381" cy="952381"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
+          <a:off x="6013450" y="31946850"/>
+          <a:ext cx="952381" cy="952381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>977781</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>977781</xdr:rowOff>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1092081</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>12581</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1892,28 +1950,28 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4800600" y="32912050"/>
-          <a:ext cx="952381" cy="952381"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
+          <a:off x="6013450" y="32937450"/>
+          <a:ext cx="952381" cy="952381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>25397</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>977781</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>977778</xdr:rowOff>
+      <xdr:rowOff>50797</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1092081</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>12578</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1936,7 +1994,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4800600" y="33902647"/>
+          <a:off x="6013450" y="33928047"/>
           <a:ext cx="952381" cy="952381"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2150,10 +2208,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2161,11 +2219,12 @@
     <col min="1" max="1" width="4.08984375" customWidth="1"/>
     <col min="2" max="2" width="22.7265625" customWidth="1"/>
     <col min="5" max="5" width="16.26953125" customWidth="1"/>
-    <col min="6" max="6" width="15.7265625" customWidth="1"/>
+    <col min="6" max="6" width="15.7265625" style="9" customWidth="1"/>
     <col min="7" max="7" width="18.26953125" customWidth="1"/>
+    <col min="10" max="10" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2178,11 +2237,14 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="78" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2195,12 +2257,18 @@
       <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="7" t="s">
         <v>8</v>
       </c>
+      <c r="F2" s="9" t="s">
+        <v>80</v>
+      </c>
       <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="78" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -2213,11 +2281,17 @@
       <c r="D3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="J3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="78" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -2230,11 +2304,14 @@
       <c r="D4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="78" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -2247,11 +2324,14 @@
       <c r="D5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="78" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -2264,11 +2344,14 @@
       <c r="D6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="78" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -2281,11 +2364,14 @@
       <c r="D7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="78" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -2298,11 +2384,14 @@
       <c r="D8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="78" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -2315,11 +2404,14 @@
       <c r="D9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="78" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -2332,11 +2424,14 @@
       <c r="D10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="78" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -2349,11 +2444,14 @@
       <c r="D11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="78" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -2366,11 +2464,14 @@
       <c r="D12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="78" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -2383,11 +2484,14 @@
       <c r="D13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="78" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -2400,11 +2504,14 @@
       <c r="D14" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="78" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -2417,11 +2524,14 @@
       <c r="D15" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E15" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="78" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -2434,11 +2544,14 @@
       <c r="D16" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -2451,11 +2564,14 @@
       <c r="D17" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E17" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -2468,11 +2584,14 @@
       <c r="D18" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -2485,11 +2604,14 @@
       <c r="D19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -2502,11 +2624,14 @@
       <c r="D20" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -2519,11 +2644,14 @@
       <c r="D21" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E21" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E21" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -2536,11 +2664,14 @@
       <c r="D22" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -2553,11 +2684,14 @@
       <c r="D23" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E23" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -2570,11 +2704,14 @@
       <c r="D24" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E24" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E24" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -2587,11 +2724,14 @@
       <c r="D25" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E25" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -2604,11 +2744,14 @@
       <c r="D26" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E26" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E26" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -2621,11 +2764,14 @@
       <c r="D27" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E27" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E27" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -2638,11 +2784,14 @@
       <c r="D28" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E28" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -2655,11 +2804,14 @@
       <c r="D29" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E29" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E29" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -2672,11 +2824,14 @@
       <c r="D30" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E30" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E30" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -2689,11 +2844,14 @@
       <c r="D31" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E31" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E31" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -2706,11 +2864,14 @@
       <c r="D32" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E32" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E32" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -2723,11 +2884,14 @@
       <c r="D33" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E33" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E33" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -2740,11 +2904,14 @@
       <c r="D34" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E34" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E34" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -2757,11 +2924,14 @@
       <c r="D35" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E35" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E35" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -2774,13 +2944,35 @@
       <c r="D36" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E36" s="4" t="s">
-        <v>12</v>
+      <c r="E36" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576" xr:uid="{37A88D47-DE67-4C3D-8687-1E109C45CDE1}">
+      <formula1>Status</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBD36C4C-0295-4A47-83BF-EAF3F25534EC}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Test-DSCBCNV.xlsx
+++ b/Test-DSCBCNV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LG\PycharmProjects\PCCC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1921039B-F6E0-4F4F-8068-E8BB0B7E9C09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{858600C2-7B9A-42A7-ACDF-13EBC50ACB96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="83">
   <si>
     <t>STT</t>
   </si>
@@ -284,6 +284,9 @@
   </si>
   <si>
     <t>Tình trạng</t>
+  </si>
+  <si>
+    <t>XN1</t>
   </si>
 </sst>
 </file>
@@ -2210,8 +2213,8 @@
   </sheetPr>
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2302,7 +2305,7 @@
         <v>14</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>12</v>
@@ -2328,7 +2331,7 @@
         <v>12</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="78" customHeight="1" x14ac:dyDescent="0.35">
@@ -2348,7 +2351,7 @@
         <v>12</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="78" customHeight="1" x14ac:dyDescent="0.35">
@@ -2368,7 +2371,7 @@
         <v>12</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="78" customHeight="1" x14ac:dyDescent="0.35">
@@ -2388,7 +2391,7 @@
         <v>12</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="78" customHeight="1" x14ac:dyDescent="0.35">
@@ -2408,7 +2411,7 @@
         <v>12</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="78" customHeight="1" x14ac:dyDescent="0.35">
@@ -2428,7 +2431,7 @@
         <v>12</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="78" customHeight="1" x14ac:dyDescent="0.35">
@@ -2448,7 +2451,7 @@
         <v>12</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="78" customHeight="1" x14ac:dyDescent="0.35">
@@ -2468,7 +2471,7 @@
         <v>12</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="78" customHeight="1" x14ac:dyDescent="0.35">
@@ -2488,7 +2491,7 @@
         <v>12</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="78" customHeight="1" x14ac:dyDescent="0.35">
@@ -2508,7 +2511,7 @@
         <v>12</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="78" customHeight="1" x14ac:dyDescent="0.35">
@@ -2528,7 +2531,7 @@
         <v>12</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="78" customHeight="1" x14ac:dyDescent="0.35">
@@ -2548,7 +2551,7 @@
         <v>12</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.35">
@@ -2568,7 +2571,7 @@
         <v>12</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.35">
@@ -2588,7 +2591,7 @@
         <v>12</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.35">
@@ -2608,7 +2611,7 @@
         <v>12</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.35">
@@ -2628,7 +2631,7 @@
         <v>12</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.35">
@@ -2648,7 +2651,7 @@
         <v>12</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.35">
@@ -2668,7 +2671,7 @@
         <v>12</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.35">
@@ -2688,7 +2691,7 @@
         <v>12</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.35">
@@ -2708,7 +2711,7 @@
         <v>12</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.35">
@@ -2728,7 +2731,7 @@
         <v>12</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.35">
@@ -2748,7 +2751,7 @@
         <v>12</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.35">
@@ -2768,7 +2771,7 @@
         <v>12</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.35">
@@ -2788,7 +2791,7 @@
         <v>12</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.35">
@@ -2808,7 +2811,7 @@
         <v>12</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.35">
@@ -2828,7 +2831,7 @@
         <v>12</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.35">
@@ -2848,7 +2851,7 @@
         <v>12</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.35">
@@ -2868,7 +2871,7 @@
         <v>12</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.35">
@@ -2888,7 +2891,7 @@
         <v>12</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.35">

--- a/Test-DSCBCNV.xlsx
+++ b/Test-DSCBCNV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LG\PycharmProjects\PCCC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61684F19-24AA-454C-B2CB-56727D2D7D36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11C97998-CB12-4BD6-A091-31A633E13FC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,238 +55,238 @@
     <t>Phòng/Ban</t>
   </si>
   <si>
+    <t>THOP</t>
+  </si>
+  <si>
+    <t>Phòng Tổng hợp</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Diệu Hương</t>
+  </si>
+  <si>
+    <t>H0844</t>
+  </si>
+  <si>
+    <t>XN</t>
+  </si>
+  <si>
+    <t>Xí nghiệp</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Na Ly</t>
+  </si>
+  <si>
+    <t>L1349</t>
+  </si>
+  <si>
+    <t>Huỳnh Thị Hiền</t>
+  </si>
+  <si>
+    <t>H2610</t>
+  </si>
+  <si>
+    <t>Châu Thị Ngọc Trâm</t>
+  </si>
+  <si>
+    <t>T4249</t>
+  </si>
+  <si>
+    <t>Trần Thị Bảo Ni</t>
+  </si>
+  <si>
+    <t>N1598</t>
+  </si>
+  <si>
+    <t>Phan Thị Kim Oanh</t>
+  </si>
+  <si>
+    <t>O0135</t>
+  </si>
+  <si>
+    <t>Lê Thị Hoa</t>
+  </si>
+  <si>
+    <t>H3647</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Tuyết Giao</t>
+  </si>
+  <si>
+    <t>G0112</t>
+  </si>
+  <si>
+    <t>Hà Thị Bé Hương</t>
+  </si>
+  <si>
+    <t>H0878</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Tuyết</t>
+  </si>
+  <si>
+    <t>T1229</t>
+  </si>
+  <si>
+    <t>Châu Thị Minh Tri</t>
+  </si>
+  <si>
+    <t>T2010</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Linh</t>
+  </si>
+  <si>
+    <t>L1210</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Lanh</t>
+  </si>
+  <si>
+    <t>L1382</t>
+  </si>
+  <si>
+    <t>Huỳnh Thị Hoa</t>
+  </si>
+  <si>
+    <t>H2865</t>
+  </si>
+  <si>
+    <t>Võ Thị Khánh Trinh</t>
+  </si>
+  <si>
+    <t>T4198</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Vân</t>
+  </si>
+  <si>
+    <t>V0066</t>
+  </si>
+  <si>
+    <t>Hoàng Thị Bích Hạnh</t>
+  </si>
+  <si>
+    <t>H0786</t>
+  </si>
+  <si>
+    <t>Lê Thị Ngọc Nhung</t>
+  </si>
+  <si>
+    <t>N0735</t>
+  </si>
+  <si>
+    <t>Phan Thị Trang</t>
+  </si>
+  <si>
+    <t>T2606</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Nga</t>
+  </si>
+  <si>
+    <t>N1111</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Thanh Thúy</t>
+  </si>
+  <si>
+    <t>T3266</t>
+  </si>
+  <si>
+    <t>Hoàng Thị Cẩm</t>
+  </si>
+  <si>
+    <t>C0558</t>
+  </si>
+  <si>
+    <t>Huỳnh Trương Khánh Linh</t>
+  </si>
+  <si>
+    <t>L1608</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Bé</t>
+  </si>
+  <si>
+    <t>B0400</t>
+  </si>
+  <si>
+    <t>Trịnh Thị Mộng Thu</t>
+  </si>
+  <si>
+    <t>T4101</t>
+  </si>
+  <si>
+    <t>Võ Thị Đệ</t>
+  </si>
+  <si>
+    <t>Đ0333</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Kim Phương</t>
+  </si>
+  <si>
+    <t>P0895</t>
+  </si>
+  <si>
+    <t>Phan Thị Hồng Phượng</t>
+  </si>
+  <si>
+    <t>P0898</t>
+  </si>
+  <si>
+    <t>Hồ Văn Minh</t>
+  </si>
+  <si>
+    <t>M0623</t>
+  </si>
+  <si>
+    <t>Nguyễn Lê áI Liên</t>
+  </si>
+  <si>
+    <t>L1939</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Hạnh</t>
+  </si>
+  <si>
+    <t>H0503</t>
+  </si>
+  <si>
+    <t>Dương Thị Lanh</t>
+  </si>
+  <si>
+    <t>L1205</t>
+  </si>
+  <si>
+    <t>Nguyễn Lương Thùy Dung</t>
+  </si>
+  <si>
+    <t>D0694</t>
+  </si>
+  <si>
+    <t>Lê Thị Thúy</t>
+  </si>
+  <si>
+    <t>T4419</t>
+  </si>
+  <si>
+    <t>Có mặt</t>
+  </si>
+  <si>
+    <t>Vắng mặt</t>
+  </si>
+  <si>
+    <t>Tình trạng</t>
+  </si>
+  <si>
+    <t>XN1</t>
+  </si>
+  <si>
     <t>Vũ Thanh Hoà</t>
   </si>
   <si>
     <t>H3803</t>
-  </si>
-  <si>
-    <t>THOP</t>
-  </si>
-  <si>
-    <t>Phòng Tổng hợp</t>
-  </si>
-  <si>
-    <t>Nguyễn Thị Diệu Hương</t>
-  </si>
-  <si>
-    <t>H0844</t>
-  </si>
-  <si>
-    <t>XN</t>
-  </si>
-  <si>
-    <t>Xí nghiệp</t>
-  </si>
-  <si>
-    <t>Nguyễn Thị Na Ly</t>
-  </si>
-  <si>
-    <t>L1349</t>
-  </si>
-  <si>
-    <t>Huỳnh Thị Hiền</t>
-  </si>
-  <si>
-    <t>H2610</t>
-  </si>
-  <si>
-    <t>Châu Thị Ngọc Trâm</t>
-  </si>
-  <si>
-    <t>T4249</t>
-  </si>
-  <si>
-    <t>Trần Thị Bảo Ni</t>
-  </si>
-  <si>
-    <t>N1598</t>
-  </si>
-  <si>
-    <t>Phan Thị Kim Oanh</t>
-  </si>
-  <si>
-    <t>O0135</t>
-  </si>
-  <si>
-    <t>Lê Thị Hoa</t>
-  </si>
-  <si>
-    <t>H3647</t>
-  </si>
-  <si>
-    <t>Nguyễn Thị Tuyết Giao</t>
-  </si>
-  <si>
-    <t>G0112</t>
-  </si>
-  <si>
-    <t>Hà Thị Bé Hương</t>
-  </si>
-  <si>
-    <t>H0878</t>
-  </si>
-  <si>
-    <t>Nguyễn Thị Tuyết</t>
-  </si>
-  <si>
-    <t>T1229</t>
-  </si>
-  <si>
-    <t>Châu Thị Minh Tri</t>
-  </si>
-  <si>
-    <t>T2010</t>
-  </si>
-  <si>
-    <t>Nguyễn Thị Linh</t>
-  </si>
-  <si>
-    <t>L1210</t>
-  </si>
-  <si>
-    <t>Nguyễn Thị Lanh</t>
-  </si>
-  <si>
-    <t>L1382</t>
-  </si>
-  <si>
-    <t>Huỳnh Thị Hoa</t>
-  </si>
-  <si>
-    <t>H2865</t>
-  </si>
-  <si>
-    <t>Võ Thị Khánh Trinh</t>
-  </si>
-  <si>
-    <t>T4198</t>
-  </si>
-  <si>
-    <t>Nguyễn Thị Vân</t>
-  </si>
-  <si>
-    <t>V0066</t>
-  </si>
-  <si>
-    <t>Hoàng Thị Bích Hạnh</t>
-  </si>
-  <si>
-    <t>H0786</t>
-  </si>
-  <si>
-    <t>Lê Thị Ngọc Nhung</t>
-  </si>
-  <si>
-    <t>N0735</t>
-  </si>
-  <si>
-    <t>Phan Thị Trang</t>
-  </si>
-  <si>
-    <t>T2606</t>
-  </si>
-  <si>
-    <t>Nguyễn Thị Nga</t>
-  </si>
-  <si>
-    <t>N1111</t>
-  </si>
-  <si>
-    <t>Nguyễn Thị Thanh Thúy</t>
-  </si>
-  <si>
-    <t>T3266</t>
-  </si>
-  <si>
-    <t>Hoàng Thị Cẩm</t>
-  </si>
-  <si>
-    <t>C0558</t>
-  </si>
-  <si>
-    <t>Huỳnh Trương Khánh Linh</t>
-  </si>
-  <si>
-    <t>L1608</t>
-  </si>
-  <si>
-    <t>Nguyễn Thị Bé</t>
-  </si>
-  <si>
-    <t>B0400</t>
-  </si>
-  <si>
-    <t>Trịnh Thị Mộng Thu</t>
-  </si>
-  <si>
-    <t>T4101</t>
-  </si>
-  <si>
-    <t>Võ Thị Đệ</t>
-  </si>
-  <si>
-    <t>Đ0333</t>
-  </si>
-  <si>
-    <t>Nguyễn Thị Kim Phương</t>
-  </si>
-  <si>
-    <t>P0895</t>
-  </si>
-  <si>
-    <t>Phan Thị Hồng Phượng</t>
-  </si>
-  <si>
-    <t>P0898</t>
-  </si>
-  <si>
-    <t>Hồ Văn Minh</t>
-  </si>
-  <si>
-    <t>M0623</t>
-  </si>
-  <si>
-    <t>Nguyễn Lê áI Liên</t>
-  </si>
-  <si>
-    <t>L1939</t>
-  </si>
-  <si>
-    <t>Nguyễn Thị Hạnh</t>
-  </si>
-  <si>
-    <t>H0503</t>
-  </si>
-  <si>
-    <t>Dương Thị Lanh</t>
-  </si>
-  <si>
-    <t>L1205</t>
-  </si>
-  <si>
-    <t>Nguyễn Lương Thùy Dung</t>
-  </si>
-  <si>
-    <t>D0694</t>
-  </si>
-  <si>
-    <t>Lê Thị Thúy</t>
-  </si>
-  <si>
-    <t>T4419</t>
-  </si>
-  <si>
-    <t>Có mặt</t>
-  </si>
-  <si>
-    <t>Vắng mặt</t>
-  </si>
-  <si>
-    <t>Tình trạng</t>
-  </si>
-  <si>
-    <t>XN1</t>
   </si>
 </sst>
 </file>
@@ -2214,7 +2214,7 @@
   <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2244,7 +2244,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="78" customHeight="1" x14ac:dyDescent="0.35">
@@ -2252,23 +2252,23 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="E2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>8</v>
-      </c>
       <c r="F2" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G2" s="5"/>
       <c r="J2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="78" customHeight="1" x14ac:dyDescent="0.35">
@@ -2276,22 +2276,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="78" customHeight="1" x14ac:dyDescent="0.35">
@@ -2299,19 +2299,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="78" customHeight="1" x14ac:dyDescent="0.35">
@@ -2319,19 +2319,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="78" customHeight="1" x14ac:dyDescent="0.35">
@@ -2339,19 +2339,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="78" customHeight="1" x14ac:dyDescent="0.35">
@@ -2359,19 +2359,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="78" customHeight="1" x14ac:dyDescent="0.35">
@@ -2379,19 +2379,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="78" customHeight="1" x14ac:dyDescent="0.35">
@@ -2399,19 +2399,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="78" customHeight="1" x14ac:dyDescent="0.35">
@@ -2419,19 +2419,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="78" customHeight="1" x14ac:dyDescent="0.35">
@@ -2439,19 +2439,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="78" customHeight="1" x14ac:dyDescent="0.35">
@@ -2459,19 +2459,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="78" customHeight="1" x14ac:dyDescent="0.35">
@@ -2479,19 +2479,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="78" customHeight="1" x14ac:dyDescent="0.35">
@@ -2499,19 +2499,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="78" customHeight="1" x14ac:dyDescent="0.35">
@@ -2519,19 +2519,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="78" customHeight="1" x14ac:dyDescent="0.35">
@@ -2539,19 +2539,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.35">
@@ -2559,19 +2559,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.35">
@@ -2579,19 +2579,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.35">
@@ -2599,19 +2599,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.35">
@@ -2619,19 +2619,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.35">
@@ -2639,19 +2639,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.35">
@@ -2659,19 +2659,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.35">
@@ -2679,19 +2679,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.35">
@@ -2699,19 +2699,19 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.35">
@@ -2719,19 +2719,19 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.35">
@@ -2739,19 +2739,19 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.35">
@@ -2759,19 +2759,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.35">
@@ -2779,19 +2779,19 @@
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.35">
@@ -2799,19 +2799,19 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.35">
@@ -2819,19 +2819,19 @@
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.35">
@@ -2839,19 +2839,19 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.35">
@@ -2859,19 +2859,19 @@
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.35">
@@ -2879,19 +2879,19 @@
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.35">
@@ -2899,19 +2899,19 @@
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.35">
@@ -2919,19 +2919,19 @@
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.35">
@@ -2939,19 +2939,19 @@
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/Test-DSCBCNV.xlsx
+++ b/Test-DSCBCNV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OS\PycharmProjects\PCCC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8262513F-1AF9-401A-BD6F-43967EEDBD9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9F7E397-0522-4F23-819E-F5A136AF0597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,6 +20,7 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$F$1:$F$37</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A:$F</definedName>
     <definedName name="Status">[1]Sheet1!$J$2:$J$4</definedName>
     <definedName name="tinhTrang">Sheet1!$J$2:$J$3</definedName>
@@ -279,22 +280,22 @@
     <t>Vắng mặt</t>
   </si>
   <si>
+    <t>XN1</t>
+  </si>
+  <si>
+    <t>Vũ Thanh Hoà</t>
+  </si>
+  <si>
+    <t>H3803</t>
+  </si>
+  <si>
+    <t>Hồ Anh Phát</t>
+  </si>
+  <si>
+    <t>P0872</t>
+  </si>
+  <si>
     <t>Tình trạng</t>
-  </si>
-  <si>
-    <t>XN1</t>
-  </si>
-  <si>
-    <t>Vũ Thanh Hoà</t>
-  </si>
-  <si>
-    <t>H3803</t>
-  </si>
-  <si>
-    <t>Hồ Anh Phát</t>
-  </si>
-  <si>
-    <t>P0872</t>
   </si>
 </sst>
 </file>
@@ -2288,7 +2289,7 @@
   <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2321,7 +2322,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="77.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -2329,10 +2330,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>5</v>
@@ -2341,7 +2342,7 @@
         <v>6</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G2" s="10"/>
       <c r="J2" s="5" t="s">
@@ -2353,10 +2354,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>5</v>
@@ -2365,7 +2366,7 @@
         <v>6</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G3" s="10"/>
       <c r="J3" s="5" t="s">
@@ -2389,7 +2390,7 @@
         <v>10</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="78" customHeight="1" x14ac:dyDescent="0.25">
@@ -2403,13 +2404,13 @@
         <v>12</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="78" customHeight="1" x14ac:dyDescent="0.25">
@@ -2489,7 +2490,7 @@
         <v>10</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="78" customHeight="1" x14ac:dyDescent="0.25">
@@ -2569,7 +2570,7 @@
         <v>10</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="78" customHeight="1" x14ac:dyDescent="0.25">
@@ -2623,13 +2624,13 @@
         <v>34</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>10</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.25">
@@ -2743,13 +2744,13 @@
         <v>46</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>10</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.25">
@@ -3054,7 +3055,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{253B1A42-7B41-43F1-8DD8-ECFABCD3E488}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576" xr:uid="{253B1A42-7B41-43F1-8DD8-ECFABCD3E488}">
       <formula1>tinhTrang</formula1>
     </dataValidation>
   </dataValidations>

--- a/Test-DSCBCNV.xlsx
+++ b/Test-DSCBCNV.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OS\PycharmProjects\PCCC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LG\PycharmProjects\PCCC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9F7E397-0522-4F23-819E-F5A136AF0597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B2BC84-5DF2-4020-893A-92DFD411EEF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$F$1:$F$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$F$1:$F$42</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A:$F</definedName>
     <definedName name="Status">[1]Sheet1!$J$2:$J$4</definedName>
     <definedName name="tinhTrang">Sheet1!$J$2:$J$3</definedName>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="99">
   <si>
     <t>STT</t>
   </si>
@@ -296,6 +296,48 @@
   </si>
   <si>
     <t>Tình trạng</t>
+  </si>
+  <si>
+    <t>Trần Xuân Hoè</t>
+  </si>
+  <si>
+    <t>H0080</t>
+  </si>
+  <si>
+    <t>Ban Giám đốc</t>
+  </si>
+  <si>
+    <t>BGĐ</t>
+  </si>
+  <si>
+    <t>KD-XNK</t>
+  </si>
+  <si>
+    <t>Phòng Kinh Doanh - Xuất Nhập Khẩu</t>
+  </si>
+  <si>
+    <t>Phạm Ngọc Minh Trí</t>
+  </si>
+  <si>
+    <t>Nguyễn Trầm</t>
+  </si>
+  <si>
+    <t>T0213</t>
+  </si>
+  <si>
+    <t>T3656</t>
+  </si>
+  <si>
+    <t>Phạm Thái Mỹ Tịnh</t>
+  </si>
+  <si>
+    <t>T4880</t>
+  </si>
+  <si>
+    <t>Lê Thị Kim Ngân</t>
+  </si>
+  <si>
+    <t>N1785</t>
   </si>
 </sst>
 </file>
@@ -435,7 +477,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -465,6 +507,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -533,226 +578,6 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1092081</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>12581</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41D0CE25-6B99-4A54-B7BA-4C058B9A5570}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5740400" y="2232025"/>
-          <a:ext cx="952381" cy="952381"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1092081</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>12581</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CAF7177-0FA4-45F0-8E67-B933C39471A0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5740400" y="3222625"/>
-          <a:ext cx="952381" cy="952381"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1092081</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>12581</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0AA5430-8DB3-4FDC-9D30-016B599FF246}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5740400" y="4213225"/>
-          <a:ext cx="952381" cy="952381"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1092081</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>12581</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EEB2176-3E52-4E10-B082-ABE400138E20}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5740400" y="5203825"/>
-          <a:ext cx="952381" cy="952381"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1092081</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>12581</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA6260ED-A7BD-482B-8E99-FC31CB26FE63}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5740400" y="6194425"/>
-          <a:ext cx="952381" cy="952381"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
@@ -764,26 +589,26 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83540184-8245-4676-BA4E-CED19751561E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5740400" y="7185025"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41D0CE25-6B99-4A54-B7BA-4C058B9A5570}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5740400" y="2232025"/>
           <a:ext cx="952381" cy="952381"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -808,26 +633,26 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04CBE1B8-EFF4-4061-830B-E787D403A6DA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5740400" y="8175625"/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CAF7177-0FA4-45F0-8E67-B933C39471A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5740400" y="3222625"/>
           <a:ext cx="952381" cy="952381"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -852,26 +677,26 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CADBB42-29F4-4C39-B4A9-46AA5EED040F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5740400" y="9166225"/>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0AA5430-8DB3-4FDC-9D30-016B599FF246}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5740400" y="4213225"/>
           <a:ext cx="952381" cy="952381"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -896,26 +721,26 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Picture 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A48D7CA-8BE2-4147-8A41-CFFE605621D7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5740400" y="10156825"/>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EEB2176-3E52-4E10-B082-ABE400138E20}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5740400" y="5203825"/>
           <a:ext cx="952381" cy="952381"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -940,26 +765,26 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Picture 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44D66014-D604-406C-A69E-5794103A0C4D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5740400" y="11147425"/>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA6260ED-A7BD-482B-8E99-FC31CB26FE63}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5740400" y="6194425"/>
           <a:ext cx="952381" cy="952381"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -984,26 +809,26 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Picture 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96A98A36-9567-4DD2-A29E-13294BAF8899}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5740400" y="12138025"/>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83540184-8245-4676-BA4E-CED19751561E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5740400" y="7185025"/>
           <a:ext cx="952381" cy="952381"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1028,26 +853,26 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Picture 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{748F5A85-8860-4811-9FB1-45FBE30EC9FF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5740400" y="13128625"/>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04CBE1B8-EFF4-4061-830B-E787D403A6DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5740400" y="8175625"/>
           <a:ext cx="952381" cy="952381"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1072,26 +897,26 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Picture 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4A78940-70FC-4B32-A0C4-0617BFCA346A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5740400" y="14119225"/>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CADBB42-29F4-4C39-B4A9-46AA5EED040F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5740400" y="9166225"/>
           <a:ext cx="952381" cy="952381"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1116,26 +941,26 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Picture 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70219C56-B13C-436E-8E75-86D012271E52}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5740400" y="15109825"/>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A48D7CA-8BE2-4147-8A41-CFFE605621D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5740400" y="10156825"/>
           <a:ext cx="952381" cy="952381"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1160,26 +985,26 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Picture 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8467A0B-2F4E-4764-8B87-844F85057FA8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5740400" y="16100425"/>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44D66014-D604-406C-A69E-5794103A0C4D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5740400" y="11147425"/>
           <a:ext cx="952381" cy="952381"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1204,26 +1029,26 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="Picture 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{248A7A23-5359-4833-9FAF-2829B2D2B6C0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5740400" y="17091025"/>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96A98A36-9567-4DD2-A29E-13294BAF8899}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5740400" y="12138025"/>
           <a:ext cx="952381" cy="952381"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1248,26 +1073,26 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="Picture 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86A9EE30-EF8B-48B3-BB95-071E51974C12}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5740400" y="18081625"/>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{748F5A85-8860-4811-9FB1-45FBE30EC9FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5740400" y="13128625"/>
           <a:ext cx="952381" cy="952381"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1292,26 +1117,26 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="Picture 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AB0EF4B-892A-429F-9603-AE0AA2ECF2CC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5740400" y="19072225"/>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4A78940-70FC-4B32-A0C4-0617BFCA346A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5740400" y="14119225"/>
           <a:ext cx="952381" cy="952381"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1336,26 +1161,26 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="Picture 20">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB396311-7FD5-4E32-BD25-8862EC710417}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5740400" y="20062825"/>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70219C56-B13C-436E-8E75-86D012271E52}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5740400" y="15109825"/>
           <a:ext cx="952381" cy="952381"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1380,26 +1205,26 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="Picture 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E08D0022-C651-47C4-8903-AAE99044F919}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5740400" y="21053425"/>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8467A0B-2F4E-4764-8B87-844F85057FA8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5740400" y="16100425"/>
           <a:ext cx="952381" cy="952381"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1424,26 +1249,26 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="Picture 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B56B6EB-E0E3-41BE-A928-7C12A7263017}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5740400" y="22044025"/>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{248A7A23-5359-4833-9FAF-2829B2D2B6C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5740400" y="17091025"/>
           <a:ext cx="952381" cy="952381"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1468,26 +1293,26 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="Picture 23">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{522D66A1-8600-46AD-B40D-15FB3833B7FE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5740400" y="23034625"/>
+        <xdr:cNvPr id="19" name="Picture 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86A9EE30-EF8B-48B3-BB95-071E51974C12}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5740400" y="18081625"/>
           <a:ext cx="952381" cy="952381"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1512,26 +1337,26 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="Picture 24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EAD12C3-88E8-4D8B-A7A2-90D19C5892BC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5740400" y="24025225"/>
+        <xdr:cNvPr id="20" name="Picture 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AB0EF4B-892A-429F-9603-AE0AA2ECF2CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5740400" y="19072225"/>
           <a:ext cx="952381" cy="952381"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1556,26 +1381,26 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="Picture 25">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C752F4A2-CA4B-4E04-B999-3DE1C58B6DE2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5740400" y="25015825"/>
+        <xdr:cNvPr id="21" name="Picture 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB396311-7FD5-4E32-BD25-8862EC710417}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5740400" y="20062825"/>
           <a:ext cx="952381" cy="952381"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1600,26 +1425,26 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="Picture 26">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF33E314-2607-4502-926E-44230E47B94D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5740400" y="26006425"/>
+        <xdr:cNvPr id="22" name="Picture 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E08D0022-C651-47C4-8903-AAE99044F919}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5740400" y="21053425"/>
           <a:ext cx="952381" cy="952381"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1644,26 +1469,26 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="Picture 27">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1355DD0-97BD-4699-B111-A62937147749}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5740400" y="26997025"/>
+        <xdr:cNvPr id="23" name="Picture 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B56B6EB-E0E3-41BE-A928-7C12A7263017}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5740400" y="22044025"/>
           <a:ext cx="952381" cy="952381"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1688,26 +1513,26 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="Picture 28">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17262F58-33B6-4348-8639-95ED60259019}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5740400" y="27987625"/>
+        <xdr:cNvPr id="24" name="Picture 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{522D66A1-8600-46AD-B40D-15FB3833B7FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5740400" y="23034625"/>
           <a:ext cx="952381" cy="952381"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1732,26 +1557,26 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="Picture 29">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1CD81B7-228A-45F8-9055-4601A887FA75}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5740400" y="28978225"/>
+        <xdr:cNvPr id="25" name="Picture 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EAD12C3-88E8-4D8B-A7A2-90D19C5892BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5740400" y="24025225"/>
           <a:ext cx="952381" cy="952381"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1776,26 +1601,26 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="31" name="Picture 30">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6D3CA53-4C79-4655-97EC-A831885A4CF6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5740400" y="29968825"/>
+        <xdr:cNvPr id="26" name="Picture 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C752F4A2-CA4B-4E04-B999-3DE1C58B6DE2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5740400" y="25015825"/>
           <a:ext cx="952381" cy="952381"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1820,26 +1645,26 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="32" name="Picture 31">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11B27235-8CCE-461C-8390-F3B2E6155A46}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5740400" y="30959425"/>
+        <xdr:cNvPr id="27" name="Picture 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF33E314-2607-4502-926E-44230E47B94D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5740400" y="26006425"/>
           <a:ext cx="952381" cy="952381"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1864,26 +1689,26 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="33" name="Picture 32">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F4A0E34-A648-4A69-89E7-36777C7AF599}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5740400" y="31950025"/>
+        <xdr:cNvPr id="28" name="Picture 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1355DD0-97BD-4699-B111-A62937147749}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5740400" y="26997025"/>
           <a:ext cx="952381" cy="952381"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1908,26 +1733,26 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="34" name="Picture 33">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A8AA673-2591-4B5F-8FD6-90D401B2AD7A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5740400" y="32940625"/>
+        <xdr:cNvPr id="29" name="Picture 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17262F58-33B6-4348-8639-95ED60259019}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5740400" y="27987625"/>
           <a:ext cx="952381" cy="952381"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1952,6 +1777,226 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Picture 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1CD81B7-228A-45F8-9055-4601A887FA75}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5740400" y="28978225"/>
+          <a:ext cx="952381" cy="952381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1092081</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>12581</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Picture 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6D3CA53-4C79-4655-97EC-A831885A4CF6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5740400" y="29968825"/>
+          <a:ext cx="952381" cy="952381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1092081</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>12581</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Picture 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11B27235-8CCE-461C-8390-F3B2E6155A46}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5740400" y="30959425"/>
+          <a:ext cx="952381" cy="952381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1092081</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>12581</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Picture 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F4A0E34-A648-4A69-89E7-36777C7AF599}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5740400" y="31950025"/>
+          <a:ext cx="952381" cy="952381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1092081</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>12581</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="Picture 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A8AA673-2591-4B5F-8FD6-90D401B2AD7A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5740400" y="32940625"/>
+          <a:ext cx="952381" cy="952381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1092081</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>12581</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
         <xdr:cNvPr id="35" name="Picture 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
@@ -1985,13 +2030,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>50797</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1092081</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>12578</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2286,26 +2331,26 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.140625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" style="5" customWidth="1"/>
-    <col min="3" max="4" width="12.5703125" style="5"/>
-    <col min="5" max="5" width="16.28515625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" style="9" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" style="5" customWidth="1"/>
-    <col min="8" max="9" width="12.5703125" style="5"/>
-    <col min="10" max="10" width="12.5703125" style="5" hidden="1" customWidth="1"/>
-    <col min="11" max="16384" width="12.5703125" style="5"/>
+    <col min="1" max="1" width="4.1796875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="22.7265625" style="5" customWidth="1"/>
+    <col min="3" max="4" width="12.54296875" style="5"/>
+    <col min="5" max="5" width="16.26953125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="15.7265625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="16.453125" style="5" customWidth="1"/>
+    <col min="8" max="9" width="12.54296875" style="5"/>
+    <col min="10" max="10" width="12.54296875" style="5" hidden="1" customWidth="1"/>
+    <col min="11" max="16384" width="12.54296875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2325,31 +2370,31 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="77.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="77.150000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G2" s="10"/>
       <c r="J2" s="5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="78" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -2373,115 +2418,110 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+    <row r="4" spans="1:10" ht="78" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="6"/>
+      <c r="B4" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="G4" s="10"/>
+    </row>
+    <row r="5" spans="1:10" ht="78" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="G5" s="10"/>
+    </row>
+    <row r="6" spans="1:10" ht="78" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="6"/>
+      <c r="B6" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" s="10"/>
+    </row>
+    <row r="7" spans="1:10" ht="78" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="6"/>
+      <c r="B7" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="1:10" ht="78" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="G8" s="10"/>
+    </row>
+    <row r="9" spans="1:10" ht="78" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="6">
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C9" s="7" t="s">
         <v>8</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
-        <v>3</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>4</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
-        <v>5</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
-        <v>6</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
-        <v>7</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>9</v>
@@ -2490,21 +2530,21 @@
         <v>10</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="78" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>10</v>
@@ -2513,15 +2553,15 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="78" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>9</v>
@@ -2533,15 +2573,15 @@
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="78" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>9</v>
@@ -2553,15 +2593,15 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="78" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>9</v>
@@ -2570,18 +2610,18 @@
         <v>10</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="78" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>9</v>
@@ -2593,15 +2633,15 @@
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="78" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>9</v>
@@ -2613,35 +2653,35 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="78" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="6">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>79</v>
+        <v>9</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>10</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="6">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>9</v>
@@ -2653,15 +2693,15 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="6">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>9</v>
@@ -2673,15 +2713,15 @@
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>9</v>
@@ -2693,15 +2733,15 @@
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="6">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>9</v>
@@ -2713,55 +2753,55 @@
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="6">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D21" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="6">
+        <v>15</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
-        <v>20</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>79</v>
-      </c>
       <c r="E22" s="8" t="s">
         <v>10</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="6">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>9</v>
@@ -2773,15 +2813,15 @@
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="6">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>9</v>
@@ -2793,15 +2833,15 @@
         <v>78</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="6">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>9</v>
@@ -2813,15 +2853,15 @@
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="6">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>9</v>
@@ -2833,18 +2873,18 @@
         <v>78</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="6">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="E27" s="8" t="s">
         <v>10</v>
@@ -2853,15 +2893,15 @@
         <v>78</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="6">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>9</v>
@@ -2873,15 +2913,15 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="6">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>9</v>
@@ -2893,15 +2933,15 @@
         <v>78</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="6">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>9</v>
@@ -2913,15 +2953,15 @@
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="6">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>9</v>
@@ -2933,15 +2973,15 @@
         <v>78</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="6">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>9</v>
@@ -2953,15 +2993,15 @@
         <v>78</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="6">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>9</v>
@@ -2973,15 +3013,15 @@
         <v>78</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="6">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D34" s="7" t="s">
         <v>9</v>
@@ -2993,15 +3033,15 @@
         <v>78</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="6">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>9</v>
@@ -3013,15 +3053,15 @@
         <v>78</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="6">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="D36" s="7" t="s">
         <v>9</v>
@@ -3033,15 +3073,15 @@
         <v>78</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="6">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>9</v>
@@ -3053,7 +3093,108 @@
         <v>78</v>
       </c>
     </row>
+    <row r="38" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="6">
+        <v>31</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="6">
+        <v>32</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="6">
+        <v>33</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="6">
+        <v>34</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="6">
+        <v>35</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="F1:F42" xr:uid="{958805C4-EEC6-485D-99D4-0C93D56B9158}"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576" xr:uid="{253B1A42-7B41-43F1-8DD8-ECFABCD3E488}">
       <formula1>tinhTrang</formula1>
@@ -3073,9 +3214,9 @@
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="16384" width="9.1796875" style="5"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
